--- a/maoyanProject/files/cinema_park.xlsx
+++ b/maoyanProject/files/cinema_park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,6 +873,1021 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金逸影城（朝阳大悦城IMAX店）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>地址：朝阳区平房地区朝阳北路101号朝阳大悦城8层</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/88?poi=1548100</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金逸影城（中关村店）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>地址：海淀区中关村大街19号新中关购物中心B1层</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/152?poi=276722</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>20</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>北京金逸影城（荟聚IMAX激光店）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>地址：大兴区欣宁街15号荟聚购物中心H区3层</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/10987?poi=40697227</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金逸影城（双桥CGS中国巨幕厅店）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>地址：朝阳区双桥路3号东星时尚广场5层（近永辉超市）</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/1692?poi=1439570</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金逸影城（大兴大悦春风里店）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>地址：大兴区黄村镇黄村东大街38号院大兴大悦春风里5F-19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/36628?poi=910733650</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>20</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金逸影城（龙之梦激光IMAX 店）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>地址：虹口区西江湾路388号凯德龙之梦B座6层</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/1642?poi=1469758</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>26</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金逸影城（广州海珠城激光IMAX店）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>地址：海珠区江南大道中180号富力海珠商业广场B区七层703室（地铁2号线江南西B出口上面）</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/15069?poi=72872648</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>17</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金逸影城（广州美林天地IMAX店）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>地址：天河区黄埔大道东657号4F020</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/37692?poi=765089500</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>17</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金逸影城（光美大石IMAX店）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>地址：番禺区建华路建华汇商业中心东街17号楼F座3楼（人人乐超市、麦当劳旁）</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/8608?poi=5467204</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>16</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金逸影城（百信西区IMAX店）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>地址：白云区棠乐路百信广场西区L3-002</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/26277?poi=189947950</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>17</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金逸影城（海珠新都荟CINITY店）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>地址：海珠区东晓南路1290号401房自编4-A01号</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/27836?poi=1505930379</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>17</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金逸空中电影城（阅江西路店）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>地址：海珠区阅江西路222号广州塔B功能区（17-22楼）</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/7927?poi=2532134</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>18</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>30</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金逸影城（宝安大仟里IMAX激光店）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>地址：宝安区西乡街道宝安大道与海城路交汇处宝安大仟里4楼L452室</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/36303?poi=1091795165</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>19</v>
+      </c>
+      <c r="G27" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>30</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金逸影城（光明大仟里IMAX店）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>地址：光明区公明街道合水口社区松白路4699号L425室</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/28030?poi=558047624</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>19</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>30</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金逸影城（中心城店）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>地址：福田区福华一路领展中心城G层（会展中心地铁站B出口）</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/153?poi=791721</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>19</v>
+      </c>
+      <c r="G29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>45</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金逸影城（兰亭IMAX店）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>地址：渝北区兴科大道322号兰亭新都汇4层</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/27120?poi=193574307</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>21</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>45</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金逸影城（IMAX店）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>地址：南岸区花园路街道江南大道28号星光时代广场6层</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/711?poi=1438939</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>21</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金逸影城（杭州华夏之心美瑭IMAX店）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>地址：余杭区余杭塘路华夏之心美瑭广场4楼</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/36843?poi=1479476427</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>15</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>50</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金逸影城（影视中心IMAX店）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>地址：拱墅区东新街道东新路655号物美大卖场4层</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/15023?poi=90182909</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>15</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>50</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金逸影城（天虹店）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>地址：上城区四季青街道新塘路108号天虹购物中心B座6层606号</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/11103?poi=41474753</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>15</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金逸影城（武汉大悦城IMAX店）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>地址：洪山区高新大道中国光谷大悦城购物中心五楼</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/37820?poi=1046324056</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金逸影城（王家湾店）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>地址：汉阳区龙阳大道特6号摩尔城C区5楼</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/898?poi=1549240</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金逸影城（光美荟聚IMAX店）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>地址：硚口区易家街道长宜路1号荟聚购物中心4层</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/13029?poi=41870328</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>80</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金逸影城（影视中心店）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>地址：吴中区木渎镇金山南路288号苏州国际影视娱乐城1幢4层</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/10555?poi=5120024</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>14</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>55</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金逸影城（大观店）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>地址：鼓楼区建宁路300号大观天地MALL3楼</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/1175?poi=1097671</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>55</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金逸影城（明发店）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>地址：浦口区滨江大道1号明发外滩广场1号门3楼（克莉丝汀旁）</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/1172?poi=1439216</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>55</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金逸影城（南京河西天街店）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>地址：建邺区云龙山路89号河西天街6F-Z01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/37157?poi=1150495630</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>70</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金逸影城（长沙北辰三角洲大悦城LUXE店）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>地址：开福区湘江北路1500号长沙北辰三角洲大悦城5F-02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/37262?poi=506346495</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>10</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>70</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金逸影城（时代店）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>地址：岳麓区桐梓坡路与玉兰路交汇处时代广场北侧4楼</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/1739?poi=1151000</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>10</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>70</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金逸影城（宁乡翡翠湖IMAX店）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>地址：宁乡市玉潭街道新康社区新康路与春城北路交汇处翡翠湖时代广场三层</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/37359?poi=1645034014</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金逸影城（成都鹏瑞利IMAX店）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>地址：青羊区光华北三路55号鹏瑞利青羊广场3楼</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/10155?poi=4748851</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>23</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>40</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金逸影城（大悦城IMAX激光店）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>地址：南开区兴南街道南门外大街2-6号天津大悦城f4层4f-13、4f-15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/2227?poi=1500502</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>40</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>金逸影城（大港IMAX店）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>地址：滨海新区古林街道世纪大道东305号易品商业广场A区5层</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.maoyan.com/cinema/16649?poi=131327444</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
